--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2565.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2565.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.031339933920178</v>
+        <v>1.378699898719788</v>
       </c>
       <c r="B1">
-        <v>1.6180875470713</v>
+        <v>1.178440928459167</v>
       </c>
       <c r="C1">
-        <v>3.559225531423043</v>
+        <v>4.999112606048584</v>
       </c>
       <c r="D1">
-        <v>2.05355422679092</v>
+        <v>3.659501552581787</v>
       </c>
       <c r="E1">
-        <v>0.7430478410307716</v>
+        <v>0.7109580039978027</v>
       </c>
     </row>
   </sheetData>
